--- a/MoranI example.xlsx
+++ b/MoranI example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\Guest\Spatial-analysis-of-public-health-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D4E72-F562-4FDC-83F9-6AAD46FC936B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D39A59-1AC7-41CD-ABCC-149AD6D465D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25780" windowHeight="6550" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25780" windowHeight="4630" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Moran I example" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
   <si>
     <t>W_ij</t>
   </si>
@@ -91,6 +91,42 @@
   </si>
   <si>
     <t>Value of unit</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Number of zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom part </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>value of polygon</t>
+  </si>
+  <si>
+    <t>x hat</t>
+  </si>
+  <si>
+    <t>mean of values</t>
+  </si>
+  <si>
+    <t>Top part:</t>
+  </si>
+  <si>
+    <t>Sum of top part</t>
+  </si>
+  <si>
+    <t>unit - mean</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>unit-mean</t>
   </si>
 </sst>
 </file>
@@ -160,14 +196,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22283</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85133</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -221,13 +257,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>119530</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485589</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>149412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -287,13 +323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>141942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>366059</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -353,13 +389,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47812</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>100107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>413871</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>70224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -417,15 +453,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>32871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>552823</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>2988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -485,13 +521,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>499035</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>88153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>82177</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>58270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -507,8 +543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3561976" y="3076388"/>
-          <a:ext cx="1757083" cy="343647"/>
+          <a:off x="3561976" y="3636682"/>
+          <a:ext cx="1801906" cy="343647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -551,13 +587,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476623</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>82177</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>95623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -615,16 +651,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>530412</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>97119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>209048</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>92605</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209047</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -678,13 +714,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>409389</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>155388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -742,16 +778,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171824</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>608104</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -766,7 +802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11004176" y="1665942"/>
+          <a:off x="10981763" y="2233707"/>
           <a:ext cx="585694" cy="194234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -808,15 +844,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>585693</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>212164</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>5976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -874,15 +910,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>5976</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>150906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>59766</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>37354</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -940,15 +976,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>361576</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>162859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>132976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1006,15 +1042,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>5976</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>173319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>567764</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1072,15 +1108,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>16435</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>70225</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1138,15 +1174,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>65741</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16434</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1204,15 +1240,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>46317</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>138954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>608105</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>10458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1270,15 +1306,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>82176</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>164353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>31376</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1336,15 +1372,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>85164</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>167342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>34364</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1402,16 +1438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>164353</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>53790</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1495</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1426,8 +1462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13409706" y="3152588"/>
-          <a:ext cx="666378" cy="259978"/>
+          <a:off x="14582588" y="3511177"/>
+          <a:ext cx="666378" cy="259977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,16 +1504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>585694</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>182281</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>570753</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>26896</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68730</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11954</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>46319</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1492,8 +1528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13382812" y="5411693"/>
-          <a:ext cx="666378" cy="259978"/>
+          <a:off x="14593047" y="5762811"/>
+          <a:ext cx="666378" cy="259979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1534,16 +1570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>455706</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>97117</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>82176</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1558,8 +1594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13305118" y="3115235"/>
-          <a:ext cx="851647" cy="343647"/>
+          <a:off x="14478000" y="3473824"/>
+          <a:ext cx="851647" cy="343646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,16 +1636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>510988</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>137458</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>518459</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>129987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>137459</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144929</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1624,8 +1660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13308106" y="5366870"/>
-          <a:ext cx="851647" cy="343647"/>
+          <a:off x="14540753" y="5732928"/>
+          <a:ext cx="851647" cy="343648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,6 +1698,401 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580092</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CF8ED3-6CD5-4BA5-8484-6C85F9DC51B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9492504" y="313018"/>
+          <a:ext cx="4522320" cy="1614394"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108323</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>388471</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Right Brace 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDECB0D-6714-4FBA-BCBF-096BB748735F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9058089" y="-1199031"/>
+          <a:ext cx="205440" cy="2730501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11111"/>
+            <a:gd name="adj2" fmla="val 62053"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200957</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>126253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>346638</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Right Brace 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F546FC-2EDF-4ECA-97F3-51E94FEB3ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9389785" y="-575986"/>
+          <a:ext cx="205437" cy="1983445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11111"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>577505</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>455706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB72429F-97AF-4794-ADE2-572A2B2AED02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="1"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9489917" y="63499"/>
+          <a:ext cx="4988083" cy="3768913"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>270435</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>363070</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4292E316-F9C3-4355-8AA1-61BA3AE9ECC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182847" y="1253564"/>
+          <a:ext cx="2752164" cy="2272554"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31EEE61-2CC8-45C8-9C9F-28ED2C460C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7291294" y="709706"/>
+          <a:ext cx="10511118" cy="1748118"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>234576</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369D4FC3-5A9B-4510-A6DD-69EE93A50CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7309223" y="1243106"/>
+          <a:ext cx="10411012" cy="1461247"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1964,1241 +2395,1002 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8445F-C5AC-4765-895A-655DD8F47285}">
-  <dimension ref="A8:AF30"/>
+  <dimension ref="A8:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.36328125" customWidth="1"/>
+    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="Q9" s="1" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="S12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T12" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>2</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O13" t="s">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P13" t="s">
         <v>4</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q13" t="s">
         <v>5</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R13" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S13" t="s">
         <v>7</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T13" t="s">
         <v>8</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U13" t="s">
         <v>9</v>
       </c>
-      <c r="V10" t="s">
-        <v>1</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
         <v>2</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z13" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA13" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB13" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC13" t="s">
         <v>6</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f>SUM(B11:G11)</f>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>SUM(B14:G14)</f>
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f>$R$11*K18</f>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>$T$14*M21</f>
         <v>10.0489</v>
       </c>
-      <c r="L11">
-        <f t="shared" ref="L11:P11" si="0">$R$11*L18</f>
+      <c r="N14">
+        <f>$T$14*N21</f>
         <v>6.8788999999999998</v>
       </c>
-      <c r="M11">
+      <c r="O14">
+        <f>$T$14*O21</f>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="P14">
+        <f>$T$14*P21</f>
+        <v>-8.9710999999999999</v>
+      </c>
+      <c r="Q14">
+        <f>$T$14*Q21</f>
+        <v>-8.9710999999999999</v>
+      </c>
+      <c r="R14">
+        <f>$T$14*R21</f>
+        <v>-5.8010999999999999</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <f>S14-$S$20</f>
+        <v>3.17</v>
+      </c>
+      <c r="U14">
+        <f>T14^2</f>
+        <v>10.0489</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f>B14*M14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>C14*N14</f>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="Z14">
+        <f>D14*O14</f>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="AA14">
+        <f>E14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f>F14*Q14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f>G14*R14</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF14">
+        <v>6</v>
+      </c>
+      <c r="AH14">
+        <f>(AF14/AF15)*(Z21/U20)</f>
+        <v>0.32556817049636649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H19" si="0">SUM(B15:G15)</f>
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f>$T$15*M21</f>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:R15" si="1">$T$15*N21</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>-3.9710999999999999</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T19" si="2">S15-$S$20</f>
+        <v>2.17</v>
+      </c>
+      <c r="U15">
+        <f>T15^2</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:X19" si="3">B15*M15</f>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ref="Y15:Y19" si="4">C15*N15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" ref="Z15:Z19" si="5">D15*O15</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" ref="AA15:AA19" si="6">E15*P15</f>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ref="AB15:AB19" si="7">F15*Q15</f>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ref="AC15:AC19" si="8">G15*R15</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f>$T$16*M21</f>
         <v>6.8788999999999998</v>
       </c>
-      <c r="N11">
+      <c r="N16">
+        <f t="shared" ref="N16:R16" si="9">$T$16*N21</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>-3.9710999999999999</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>2.17</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U19" si="10">T16^2</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="W16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="3"/>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="4"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="7"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f>$T$17*M21</f>
         <v>-8.9710999999999999</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>-8.9710999999999999</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>-5.8010999999999999</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-      <c r="R11">
-        <f>Q11-$Q$17</f>
-        <v>3.17</v>
-      </c>
-      <c r="S11">
-        <f>R11^2</f>
-        <v>10.0489</v>
-      </c>
-      <c r="U11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <f>B11*K11</f>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f>C11*L11</f>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="X11">
-        <f>D11*M11</f>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="Y11">
-        <f>E11*N11</f>
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <f>F11*O11</f>
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <f>G11*P11</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11">
-        <v>6</v>
-      </c>
-      <c r="AF11">
-        <f>(AD11/AD12)*(V18/S17)</f>
-        <v>0.32556817049636649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H16" si="1">SUM(B12:G12)</f>
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <f>$R$12*K18</f>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12:P12" si="2">$R$12*L18</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
+      <c r="N17">
+        <f t="shared" ref="N17:R17" si="11">$T$17*N21</f>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>-3.9710999999999999</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:R16" si="3">Q12-$Q$17</f>
-        <v>2.17</v>
-      </c>
-      <c r="S12">
-        <f t="shared" ref="S12:S16" si="4">R12^2</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="U12" t="s">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ref="V12:V16" si="5">B12*K12</f>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="W12">
-        <f t="shared" ref="W12:W16" si="6">C12*L12</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ref="X12:X16" si="7">D12*M12</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" ref="Y12:Y16" si="8">E12*N12</f>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" ref="Z12:Z16" si="9">F12*O12</f>
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" ref="AA12:AA16" si="10">G12*P12</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <f>$R$13*K18</f>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ref="L13:P13" si="11">$R$13*L18</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="11"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="N13">
+      <c r="O17">
         <f t="shared" si="11"/>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="O13">
+      <c r="P17">
         <f t="shared" si="11"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="11"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="11"/>
+        <v>5.1789000000000005</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>-2.83</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="10"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="W17" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="4"/>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="11"/>
-        <v>-3.9710999999999999</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="3"/>
-        <v>2.17</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="4"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="8"/>
+        <v>5.1789000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="5"/>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="8"/>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <f>$T$18*M21</f>
+        <v>-8.9710999999999999</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:R18" si="12">$T$18*N21</f>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="Z13">
-        <f t="shared" si="9"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <f>$R$14*K18</f>
-        <v>-8.9710999999999999</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14:P14" si="12">$R$14*L18</f>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="M14">
+      <c r="O18">
         <f t="shared" si="12"/>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="N14">
+      <c r="P18">
         <f t="shared" si="12"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="O14">
+      <c r="Q18">
         <f t="shared" si="12"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="P14">
+      <c r="R18">
         <f t="shared" si="12"/>
         <v>5.1789000000000005</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>-2.83</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="10"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="W18" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="3"/>
-        <v>-2.83</v>
-      </c>
-      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="6"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="U14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="6"/>
+      <c r="AB18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="8"/>
+        <v>5.1789000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <f>$T$19*M21</f>
+        <v>-8.9710999999999999</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:R19" si="13">$T$19*N21</f>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="9"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="10"/>
-        <v>5.1789000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <f>$R$15*K18</f>
-        <v>-8.9710999999999999</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ref="L15:P15" si="13">$R$15*L18</f>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="M15">
+      <c r="O19">
         <f t="shared" si="13"/>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="N15">
+      <c r="P19">
         <f t="shared" si="13"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="O15">
+      <c r="Q19">
         <f t="shared" si="13"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="P15">
+      <c r="R19">
         <f t="shared" si="13"/>
         <v>5.1789000000000005</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>-2.83</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="10"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="7"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="K20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3.83</v>
+      </c>
+      <c r="U20" s="1">
+        <f>SUM(U14:U19)</f>
+        <v>43.493399999999994</v>
+      </c>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <f>SUM(H14:H19)</f>
+        <v>18</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:R21" si="14">M20-$S$20</f>
+        <v>3.17</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="14"/>
+        <v>2.17</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="14"/>
+        <v>2.17</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="14"/>
         <v>-2.83</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="4"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="Q21">
+        <f t="shared" si="14"/>
+        <v>-2.83</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="14"/>
+        <v>-1.83</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21">
+        <f>SUM(X14:AC19)</f>
+        <v>42.480199999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="AH24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="7"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="8"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="10"/>
-        <v>5.1789000000000005</v>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF25">
+        <v>6</v>
+      </c>
+      <c r="AH25">
+        <f>(AF25/AF26)*(Z33/U32)</f>
+        <v>0.43926358175416658</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <f>$R$16*K18</f>
-        <v>-8.9710999999999999</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ref="L16:P16" si="14">$R$16*L18</f>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="14"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="14"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="14"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="14"/>
-        <v>5.1789000000000005</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="3"/>
-        <v>-2.83</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="4"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="U16" t="s">
-        <v>6</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="8"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="9"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="J17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <v>3.83</v>
-      </c>
-      <c r="S17" s="1">
-        <f>SUM(S11:S16)</f>
-        <v>43.493399999999994</v>
-      </c>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <f>SUM(H11:H16)</f>
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18">
-        <f>K17-$Q$17</f>
-        <v>3.17</v>
-      </c>
-      <c r="L18">
-        <f>L17-$Q$17</f>
-        <v>2.17</v>
-      </c>
-      <c r="M18">
-        <f>M17-$Q$17</f>
-        <v>2.17</v>
-      </c>
-      <c r="N18">
-        <f>N17-$Q$17</f>
-        <v>-2.83</v>
-      </c>
-      <c r="O18">
-        <f>O17-$Q$17</f>
-        <v>-2.83</v>
-      </c>
-      <c r="P18">
-        <f>P17-$Q$17</f>
-        <v>-1.83</v>
-      </c>
-      <c r="V18">
-        <f>SUM(V11:AA16)</f>
-        <v>42.480199999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="AF21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" t="s">
-        <v>9</v>
-      </c>
-      <c r="V22" t="s">
-        <v>1</v>
-      </c>
-      <c r="W22" t="s">
-        <v>2</v>
-      </c>
-      <c r="X22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD22">
-        <v>6</v>
-      </c>
-      <c r="AF22">
-        <f>(AD22/AD23)*(V30/S29)</f>
-        <v>0.43926358175416658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f>1/$H$11</f>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>1/$H$14</f>
         <v>0.5</v>
       </c>
-      <c r="D23">
-        <f>1/$H$11</f>
+      <c r="D26">
+        <f>1/$H$14</f>
         <v>0.5</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>SUM(B23:G23)</f>
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <f>$R$11*K30</f>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>SUM(B26:G26)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>$T$14*M33</f>
         <v>10.0489</v>
       </c>
-      <c r="L23">
-        <f t="shared" ref="L23:P23" si="15">$R$11*L30</f>
+      <c r="N26">
+        <f t="shared" ref="N26:R26" si="15">$T$14*N33</f>
         <v>6.8788999999999998</v>
       </c>
-      <c r="M23">
+      <c r="O26">
         <f t="shared" si="15"/>
         <v>6.8788999999999998</v>
       </c>
-      <c r="N23">
+      <c r="P26">
         <f t="shared" si="15"/>
         <v>-8.9710999999999999</v>
       </c>
-      <c r="O23">
+      <c r="Q26">
         <f t="shared" si="15"/>
         <v>-8.9710999999999999</v>
       </c>
-      <c r="P23">
+      <c r="R26">
         <f t="shared" si="15"/>
         <v>-5.8010999999999999</v>
       </c>
-      <c r="Q23">
+      <c r="S26">
         <v>7</v>
       </c>
-      <c r="R23">
-        <f>Q23-$Q$17</f>
+      <c r="T26">
+        <f>S26-$S$20</f>
         <v>3.17</v>
       </c>
-      <c r="S23">
-        <f>R23^2</f>
+      <c r="U26">
+        <f>T26^2</f>
         <v>10.0489</v>
       </c>
-      <c r="U23" t="s">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <f>B23*K23</f>
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <f t="shared" ref="W23:AA23" si="16">C23*L23</f>
+      <c r="W26" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <f>B26*M26</f>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f>C26*N26</f>
         <v>3.4394499999999999</v>
       </c>
-      <c r="X23">
-        <f t="shared" si="16"/>
+      <c r="Z26">
+        <f>D26*O26</f>
         <v>3.4394499999999999</v>
       </c>
-      <c r="Y23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AA26">
+        <f>E26*P26</f>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f>F26*Q26</f>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f>G26*R26</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" t="s">
         <v>14</v>
       </c>
-      <c r="AD23">
+      <c r="AF26">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
-        <f>1/$H$12</f>
+      <c r="B27">
+        <f>1/$H$15</f>
         <v>0.33333333333333331</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f>1/$H$12</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E24">
-        <f>1/$H$12</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ref="H24:H28" si="17">SUM(B24:G24)</f>
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <f>$R$12*K30</f>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ref="L24:P24" si="18">$R$12*L30</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="18"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="18"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="18"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="18"/>
-        <v>-3.9710999999999999</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-      <c r="R24">
-        <f t="shared" ref="R24:R28" si="19">Q24-$Q$17</f>
-        <v>2.17</v>
-      </c>
-      <c r="S24">
-        <f t="shared" ref="S24:S28" si="20">R24^2</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="U24" t="s">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <f t="shared" ref="V24:V28" si="21">B24*K24</f>
-        <v>2.2929666666666666</v>
-      </c>
-      <c r="W24">
-        <f t="shared" ref="W24:W28" si="22">C24*L24</f>
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <f t="shared" ref="X24:X28" si="23">D24*M24</f>
-        <v>1.5696333333333332</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" ref="Y24:Y28" si="24">E24*N24</f>
-        <v>-2.0470333333333333</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" ref="Z24:Z28" si="25">F24*O24</f>
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" ref="AA24:AA28" si="26">G24*P24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <f>1/$H$13</f>
-        <v>0.25</v>
-      </c>
-      <c r="C25">
-        <f>1/$H$13</f>
-        <v>0.25</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>1/$H$13</f>
-        <v>0.25</v>
-      </c>
-      <c r="F25">
-        <f>1/$H$13</f>
-        <v>0.25</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <f>$R$13*K30</f>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ref="L25:P25" si="27">$R$13*L30</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="27"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="27"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="27"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="27"/>
-        <v>-3.9710999999999999</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="19"/>
-        <v>2.17</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="20"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="U25" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="21"/>
-        <v>1.7197249999999999</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="22"/>
-        <v>1.177225</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" si="24"/>
-        <v>-1.5352749999999999</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" si="25"/>
-        <v>-1.5352749999999999</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f>1/$H$14</f>
-        <v>0.25</v>
-      </c>
-      <c r="D26">
-        <f>1/$H$14</f>
-        <v>0.25</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>1/$H$14</f>
-        <v>0.25</v>
-      </c>
-      <c r="G26">
-        <f>1/$H$14</f>
-        <v>0.25</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <f>$R$14*K30</f>
-        <v>-8.9710999999999999</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ref="L26:P26" si="28">$R$14*L30</f>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="28"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="28"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="28"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="28"/>
-        <v>5.1789000000000005</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="19"/>
-        <v>-2.83</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="20"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="U26" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="22"/>
-        <v>-1.5352749999999999</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="23"/>
-        <v>-1.5352749999999999</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="25"/>
-        <v>2.0022250000000001</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="26"/>
-        <v>1.2947250000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3215,248 +3407,538 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f>1/$H$15</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H31" si="16">SUM(B27:G27)</f>
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f>$T$15*M33</f>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:R27" si="17">$T$15*N33</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="17"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="17"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="17"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="17"/>
+        <v>-3.9710999999999999</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ref="T27:T31" si="18">S27-$S$20</f>
+        <v>2.17</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27:U31" si="19">T27^2</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="W27" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ref="X27:X31" si="20">B27*M27</f>
+        <v>2.2929666666666666</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" ref="Y27:Y31" si="21">C27*N27</f>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" ref="Z27:Z31" si="22">D27*O27</f>
+        <v>1.5696333333333332</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ref="AA27:AA31" si="23">E27*P27</f>
+        <v>-2.0470333333333333</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" ref="AB27:AB31" si="24">F27*Q27</f>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" ref="AC27:AC31" si="25">G27*R27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <f>1/$H$16</f>
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <f>1/$H$16</f>
+        <v>0.25</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>1/$H$16</f>
+        <v>0.25</v>
+      </c>
+      <c r="F28">
+        <f>1/$H$16</f>
+        <v>0.25</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <f>$T$16*M33</f>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:R28" si="26">$T$16*N33</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="26"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="26"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="26"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="26"/>
+        <v>-3.9710999999999999</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="18"/>
+        <v>2.17</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="19"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="W28" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="20"/>
+        <v>1.7197249999999999</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="21"/>
+        <v>1.177225</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="23"/>
+        <v>-1.5352749999999999</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="24"/>
+        <v>-1.5352749999999999</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>1/$H$17</f>
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <f>1/$H$17</f>
+        <v>0.25</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>1/$H$17</f>
+        <v>0.25</v>
+      </c>
+      <c r="G29">
+        <f>1/$H$17</f>
+        <v>0.25</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <f>$T$17*M33</f>
+        <v>-8.9710999999999999</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:R29" si="27">$T$17*N33</f>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="27"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="27"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="27"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="27"/>
+        <v>5.1789000000000005</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="18"/>
+        <v>-2.83</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="19"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="W29" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="21"/>
+        <v>-1.5352749999999999</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="22"/>
+        <v>-1.5352749999999999</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="24"/>
+        <v>2.0022250000000001</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="25"/>
+        <v>1.2947250000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>1/$H$18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="E30">
+        <f>1/$H$18</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>1/$H$18</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
         <v>5</v>
       </c>
-      <c r="K27">
-        <f>$R$15*K30</f>
+      <c r="M30">
+        <f>$T$18*M33</f>
         <v>-8.9710999999999999</v>
       </c>
-      <c r="L27">
-        <f t="shared" ref="L27:P27" si="29">$R$15*L30</f>
+      <c r="N30">
+        <f t="shared" ref="N30:R30" si="28">$T$18*N33</f>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="M27">
+      <c r="O30">
+        <f t="shared" si="28"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="28"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="28"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="28"/>
+        <v>5.1789000000000005</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="18"/>
+        <v>-2.83</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="19"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="W30" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="22"/>
+        <v>-2.0470333333333333</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="23"/>
+        <v>2.6696333333333335</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="25"/>
+        <v>1.7263000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>1/$H$19</f>
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <f>1/$H$19</f>
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <f>$T$19*M33</f>
+        <v>-8.9710999999999999</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:R31" si="29">$T$19*N33</f>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="29"/>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="N27">
+      <c r="P31">
         <f t="shared" si="29"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="O27">
+      <c r="Q31">
         <f t="shared" si="29"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="P27">
+      <c r="R31">
         <f t="shared" si="29"/>
         <v>5.1789000000000005</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="18"/>
+        <v>-2.83</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="19"/>
-        <v>-2.83</v>
-      </c>
-      <c r="S27">
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="W31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31">
         <f t="shared" si="20"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="U27" t="s">
-        <v>5</v>
-      </c>
-      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W27">
+      <c r="Z31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="AA31">
         <f t="shared" si="23"/>
-        <v>-2.0470333333333333</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="24"/>
-        <v>2.6696333333333335</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="26"/>
-        <v>1.7263000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f>1/$H$16</f>
-        <v>0.5</v>
-      </c>
-      <c r="F28">
-        <f>1/$H$16</f>
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28">
-        <f>$R$16*K30</f>
-        <v>-8.9710999999999999</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ref="L28:P28" si="30">$R$16*L30</f>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="30"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="30"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="30"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="30"/>
-        <v>5.1789000000000005</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="19"/>
-        <v>-2.83</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="20"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="U28" t="s">
-        <v>6</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y28">
+        <v>4.0044500000000003</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="24"/>
         <v>4.0044500000000003</v>
       </c>
-      <c r="Z28">
+      <c r="AC31">
         <f t="shared" si="25"/>
-        <v>4.0044500000000003</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="J29" t="s">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
         <v>10</v>
       </c>
-      <c r="K29">
+      <c r="M32">
         <v>7</v>
       </c>
-      <c r="L29">
+      <c r="N32">
         <v>6</v>
       </c>
-      <c r="M29">
+      <c r="O32">
         <v>6</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
         <v>2</v>
       </c>
-      <c r="Q29">
+      <c r="S32">
         <v>3.83</v>
       </c>
-      <c r="S29" s="1">
-        <f>SUM(S23:S28)</f>
+      <c r="U32" s="1">
+        <f>SUM(U26:U31)</f>
         <v>43.493399999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="H30">
-        <f>SUM(H23:H28)</f>
+      <c r="H33">
+        <f>SUM(H26:H31)</f>
         <v>6</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L33" t="s">
         <v>11</v>
       </c>
-      <c r="K30">
-        <f>K29-$Q$17</f>
+      <c r="M33">
+        <f>M32-$S$20</f>
         <v>3.17</v>
       </c>
-      <c r="L30">
-        <f t="shared" ref="L30" si="31">L29-$Q$17</f>
+      <c r="N33">
+        <f t="shared" ref="N33" si="30">N32-$S$20</f>
         <v>2.17</v>
       </c>
-      <c r="M30">
-        <f t="shared" ref="M30" si="32">M29-$Q$17</f>
+      <c r="O33">
+        <f t="shared" ref="O33" si="31">O32-$S$20</f>
         <v>2.17</v>
       </c>
-      <c r="N30">
-        <f t="shared" ref="N30" si="33">N29-$Q$17</f>
+      <c r="P33">
+        <f t="shared" ref="P33" si="32">P32-$S$20</f>
         <v>-2.83</v>
       </c>
-      <c r="O30">
-        <f t="shared" ref="O30" si="34">O29-$Q$17</f>
+      <c r="Q33">
+        <f t="shared" ref="Q33" si="33">Q32-$S$20</f>
         <v>-2.83</v>
       </c>
-      <c r="P30">
-        <f>P29-$Q$17</f>
+      <c r="R33">
+        <f>R32-$S$20</f>
         <v>-1.83</v>
       </c>
-      <c r="V30">
-        <f>SUM(V23:AA28)</f>
+      <c r="X33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z33">
+        <f>SUM(X26:AC31)</f>
         <v>19.105066666666666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MoranI example.xlsx
+++ b/MoranI example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\Guest\Spatial-analysis-of-public-health-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D39A59-1AC7-41CD-ABCC-149AD6D465D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E373E05-9247-4B56-98E4-077946A9E0D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25780" windowHeight="4630" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Moran's I</t>
   </si>
   <si>
-    <t>Deviation= (value of unit - mean)*(value of neighbour-mean)</t>
-  </si>
-  <si>
     <t>N=6</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>unit-mean</t>
+  </si>
+  <si>
+    <t>Deviation= (value of unit (here it's I) - mean)*(value of neighbour (here it's J)-mean)</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
       <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>82177</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104589</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95623</xdr:rowOff>
     </xdr:to>
@@ -609,8 +609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3539564" y="5354917"/>
-          <a:ext cx="1779495" cy="343647"/>
+          <a:off x="3539564" y="5915211"/>
+          <a:ext cx="1801907" cy="343647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,9 +1703,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>580092</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126253</xdr:rowOff>
+      <xdr:colOff>487083</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -1728,8 +1728,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9492504" y="313018"/>
-          <a:ext cx="4522320" cy="1614394"/>
+          <a:off x="10691907" y="433293"/>
+          <a:ext cx="4615329" cy="1494119"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1819,9 +1819,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>200957</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>126253</xdr:rowOff>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -1842,8 +1842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9389785" y="-575986"/>
-          <a:ext cx="205437" cy="1983445"/>
+          <a:off x="10649326" y="-608857"/>
+          <a:ext cx="85162" cy="2169462"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2398,67 +2398,68 @@
   <dimension ref="A8:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="L8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AE11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="S12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
@@ -2567,27 +2568,27 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <f>$T$14*M21</f>
+        <f t="shared" ref="M14:R14" si="0">$T$14*M21</f>
         <v>10.0489</v>
       </c>
       <c r="N14">
-        <f>$T$14*N21</f>
+        <f t="shared" si="0"/>
         <v>6.8788999999999998</v>
       </c>
       <c r="O14">
-        <f>$T$14*O21</f>
+        <f t="shared" si="0"/>
         <v>6.8788999999999998</v>
       </c>
       <c r="P14">
-        <f>$T$14*P21</f>
+        <f t="shared" si="0"/>
         <v>-8.9710999999999999</v>
       </c>
       <c r="Q14">
-        <f>$T$14*Q21</f>
+        <f t="shared" si="0"/>
         <v>-8.9710999999999999</v>
       </c>
       <c r="R14">
-        <f>$T$14*R21</f>
+        <f t="shared" si="0"/>
         <v>-5.8010999999999999</v>
       </c>
       <c r="S14">
@@ -2605,27 +2606,27 @@
         <v>1</v>
       </c>
       <c r="X14">
-        <f>B14*M14</f>
+        <f t="shared" ref="X14:AC14" si="1">B14*M14</f>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>C14*N14</f>
+        <f t="shared" si="1"/>
         <v>6.8788999999999998</v>
       </c>
       <c r="Z14">
-        <f>D14*O14</f>
+        <f t="shared" si="1"/>
         <v>6.8788999999999998</v>
       </c>
       <c r="AA14">
-        <f>E14*P14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>F14*Q14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>G14*R14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE14" t="s">
@@ -2662,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H19" si="0">SUM(B15:G15)</f>
+        <f t="shared" ref="H15:H19" si="2">SUM(B15:G15)</f>
         <v>3</v>
       </c>
       <c r="L15" t="s">
@@ -2673,30 +2674,30 @@
         <v>6.8788999999999998</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:R15" si="1">$T$15*N21</f>
+        <f t="shared" ref="N15:R15" si="3">$T$15*N21</f>
         <v>4.7088999999999999</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.7088999999999999</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.9710999999999999</v>
       </c>
       <c r="S15">
         <v>6</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:T19" si="2">S15-$S$20</f>
+        <f t="shared" ref="T15:T19" si="4">S15-$S$20</f>
         <v>2.17</v>
       </c>
       <c r="U15">
@@ -2707,27 +2708,27 @@
         <v>2</v>
       </c>
       <c r="X15">
-        <f t="shared" ref="X15:X19" si="3">B15*M15</f>
+        <f t="shared" ref="X15:X19" si="5">B15*M15</f>
         <v>6.8788999999999998</v>
       </c>
       <c r="Y15">
-        <f t="shared" ref="Y15:Y19" si="4">C15*N15</f>
+        <f t="shared" ref="Y15:Y19" si="6">C15*N15</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" ref="Z15:Z19" si="5">D15*O15</f>
+        <f t="shared" ref="Z15:Z19" si="7">D15*O15</f>
         <v>4.7088999999999999</v>
       </c>
       <c r="AA15">
-        <f t="shared" ref="AA15:AA19" si="6">E15*P15</f>
+        <f t="shared" ref="AA15:AA19" si="8">E15*P15</f>
         <v>-6.1410999999999998</v>
       </c>
       <c r="AB15">
-        <f t="shared" ref="AB15:AB19" si="7">F15*Q15</f>
+        <f t="shared" ref="AB15:AB19" si="9">F15*Q15</f>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" ref="AC15:AC19" si="8">G15*R15</f>
+        <f t="shared" ref="AC15:AC19" si="10">G15*R15</f>
         <v>0</v>
       </c>
       <c r="AE15" t="s">
@@ -2760,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L16" t="s">
@@ -2771,61 +2772,61 @@
         <v>6.8788999999999998</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:R16" si="9">$T$16*N21</f>
+        <f t="shared" ref="N16:R16" si="11">$T$16*N21</f>
         <v>4.7088999999999999</v>
       </c>
       <c r="O16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.7088999999999999</v>
       </c>
       <c r="P16">
+        <f t="shared" si="11"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="11"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="11"/>
+        <v>-3.9710999999999999</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>2.17</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U19" si="12">T16^2</f>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="W16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>6.8788999999999998</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="8"/>
+        <v>-6.1410999999999998</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="9"/>
         <v>-6.1410999999999998</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="9"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="9"/>
-        <v>-3.9710999999999999</v>
-      </c>
-      <c r="S16">
-        <v>6</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="2"/>
-        <v>2.17</v>
-      </c>
-      <c r="U16">
-        <f t="shared" ref="U16:U19" si="10">T16^2</f>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="W16" t="s">
-        <v>3</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="3"/>
-        <v>6.8788999999999998</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="4"/>
-        <v>4.7088999999999999</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="6"/>
-        <v>-6.1410999999999998</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="7"/>
-        <v>-6.1410999999999998</v>
-      </c>
       <c r="AC16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L17" t="s">
@@ -2863,61 +2864,61 @@
         <v>-8.9710999999999999</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:R17" si="11">$T$17*N21</f>
+        <f t="shared" ref="N17:R17" si="13">$T$17*N21</f>
         <v>-6.1410999999999998</v>
       </c>
       <c r="O17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="P17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="R17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.1789000000000005</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.83</v>
       </c>
       <c r="U17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="W17" t="s">
         <v>4</v>
       </c>
       <c r="X17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.1789000000000005</v>
       </c>
     </row>
@@ -2944,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L18" t="s">
@@ -2955,61 +2956,61 @@
         <v>-8.9710999999999999</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:R18" si="12">$T$18*N21</f>
+        <f t="shared" ref="N18:R18" si="14">$T$18*N21</f>
         <v>-6.1410999999999998</v>
       </c>
       <c r="O18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="P18">
+        <f t="shared" si="14"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="14"/>
+        <v>8.0089000000000006</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="14"/>
+        <v>5.1789000000000005</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>-2.83</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="12"/>
         <v>8.0089000000000006</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="12"/>
-        <v>8.0089000000000006</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="12"/>
-        <v>5.1789000000000005</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="2"/>
-        <v>-2.83</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="10"/>
-        <v>8.0089000000000006</v>
-      </c>
       <c r="W18" t="s">
         <v>5</v>
       </c>
       <c r="X18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.1789000000000005</v>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L19" t="s">
@@ -3047,67 +3048,67 @@
         <v>-8.9710999999999999</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:R19" si="13">$T$19*N21</f>
+        <f t="shared" ref="N19:R19" si="15">$T$19*N21</f>
         <v>-6.1410999999999998</v>
       </c>
       <c r="O19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="P19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="R19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1789000000000005</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.83</v>
       </c>
       <c r="U19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="W19" t="s">
         <v>6</v>
       </c>
       <c r="X19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="K20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L20" t="s">
         <v>10</v>
@@ -3141,7 +3142,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -3151,37 +3152,37 @@
         <v>18</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>11</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:R21" si="14">M20-$S$20</f>
+        <f t="shared" ref="M21:R21" si="16">M20-$S$20</f>
         <v>3.17</v>
       </c>
       <c r="N21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.17</v>
       </c>
       <c r="O21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.17</v>
       </c>
       <c r="P21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.83</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.83</v>
       </c>
       <c r="R21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.83</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z21">
         <f>SUM(X14:AC19)</f>
@@ -3190,10 +3191,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
@@ -3320,23 +3321,23 @@
         <v>10.0489</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:R26" si="15">$T$14*N33</f>
+        <f t="shared" ref="N26:R26" si="17">$T$14*N33</f>
         <v>6.8788999999999998</v>
       </c>
       <c r="O26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.8788999999999998</v>
       </c>
       <c r="P26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-8.9710999999999999</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-8.9710999999999999</v>
       </c>
       <c r="R26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-5.8010999999999999</v>
       </c>
       <c r="S26">
@@ -3354,27 +3355,27 @@
         <v>1</v>
       </c>
       <c r="X26">
-        <f>B26*M26</f>
+        <f t="shared" ref="X26:AC26" si="18">B26*M26</f>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f>C26*N26</f>
+        <f t="shared" si="18"/>
         <v>3.4394499999999999</v>
       </c>
       <c r="Z26">
-        <f>D26*O26</f>
+        <f t="shared" si="18"/>
         <v>3.4394499999999999</v>
       </c>
       <c r="AA26">
-        <f>E26*P26</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f>F26*Q26</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f>G26*R26</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE26" t="s">
@@ -3410,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H27:H31" si="16">SUM(B27:G27)</f>
+        <f t="shared" ref="H27:H31" si="19">SUM(B27:G27)</f>
         <v>1</v>
       </c>
       <c r="L27" t="s">
@@ -3421,61 +3422,61 @@
         <v>6.8788999999999998</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:R27" si="17">$T$15*N33</f>
+        <f t="shared" ref="N27:R27" si="20">$T$15*N33</f>
         <v>4.7088999999999999</v>
       </c>
       <c r="O27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.7088999999999999</v>
       </c>
       <c r="P27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="R27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-3.9710999999999999</v>
       </c>
       <c r="S27">
         <v>6</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27:T31" si="18">S27-$S$20</f>
+        <f t="shared" ref="T27:T31" si="21">S27-$S$20</f>
         <v>2.17</v>
       </c>
       <c r="U27">
-        <f t="shared" ref="U27:U31" si="19">T27^2</f>
+        <f t="shared" ref="U27:U31" si="22">T27^2</f>
         <v>4.7088999999999999</v>
       </c>
       <c r="W27" t="s">
         <v>2</v>
       </c>
       <c r="X27">
-        <f t="shared" ref="X27:X31" si="20">B27*M27</f>
+        <f t="shared" ref="X27:X31" si="23">B27*M27</f>
         <v>2.2929666666666666</v>
       </c>
       <c r="Y27">
-        <f t="shared" ref="Y27:Y31" si="21">C27*N27</f>
+        <f t="shared" ref="Y27:Y31" si="24">C27*N27</f>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f t="shared" ref="Z27:Z31" si="22">D27*O27</f>
+        <f t="shared" ref="Z27:Z31" si="25">D27*O27</f>
         <v>1.5696333333333332</v>
       </c>
       <c r="AA27">
-        <f t="shared" ref="AA27:AA31" si="23">E27*P27</f>
+        <f t="shared" ref="AA27:AA31" si="26">E27*P27</f>
         <v>-2.0470333333333333</v>
       </c>
       <c r="AB27">
-        <f t="shared" ref="AB27:AB31" si="24">F27*Q27</f>
+        <f t="shared" ref="AB27:AB31" si="27">F27*Q27</f>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f t="shared" ref="AC27:AC31" si="25">G27*R27</f>
+        <f t="shared" ref="AC27:AC31" si="28">G27*R27</f>
         <v>0</v>
       </c>
     </row>
@@ -3506,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L28" t="s">
@@ -3517,61 +3518,61 @@
         <v>6.8788999999999998</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:R28" si="26">$T$16*N33</f>
+        <f t="shared" ref="N28:R28" si="29">$T$16*N33</f>
         <v>4.7088999999999999</v>
       </c>
       <c r="O28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.7088999999999999</v>
       </c>
       <c r="P28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="R28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-3.9710999999999999</v>
       </c>
       <c r="S28">
         <v>6</v>
       </c>
       <c r="T28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.17</v>
       </c>
       <c r="U28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4.7088999999999999</v>
       </c>
       <c r="W28" t="s">
         <v>3</v>
       </c>
       <c r="X28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7197249999999999</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.177225</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.5352749999999999</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.5352749999999999</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3602,7 +3603,7 @@
         <v>0.25</v>
       </c>
       <c r="H29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L29" t="s">
@@ -3613,61 +3614,61 @@
         <v>-8.9710999999999999</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29:R29" si="27">$T$17*N33</f>
+        <f t="shared" ref="N29:R29" si="30">$T$17*N33</f>
         <v>-6.1410999999999998</v>
       </c>
       <c r="O29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="P29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="R29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.1789000000000005</v>
       </c>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-2.83</v>
       </c>
       <c r="U29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="W29" t="s">
         <v>4</v>
       </c>
       <c r="X29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1.5352749999999999</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-1.5352749999999999</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2.0022250000000001</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.2947250000000001</v>
       </c>
     </row>
@@ -3697,7 +3698,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L30" t="s">
@@ -3708,61 +3709,61 @@
         <v>-8.9710999999999999</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:R30" si="28">$T$18*N33</f>
+        <f t="shared" ref="N30:R30" si="31">$T$18*N33</f>
         <v>-6.1410999999999998</v>
       </c>
       <c r="O30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="P30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="R30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>5.1789000000000005</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-2.83</v>
       </c>
       <c r="U30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="W30" t="s">
         <v>5</v>
       </c>
       <c r="X30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-2.0470333333333333</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2.6696333333333335</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1.7263000000000002</v>
       </c>
     </row>
@@ -3791,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="L31" t="s">
@@ -3802,61 +3803,61 @@
         <v>-8.9710999999999999</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:R31" si="29">$T$19*N33</f>
+        <f t="shared" ref="N31:R31" si="32">$T$19*N33</f>
         <v>-6.1410999999999998</v>
       </c>
       <c r="O31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-6.1410999999999998</v>
       </c>
       <c r="P31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="R31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>5.1789000000000005</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-2.83</v>
       </c>
       <c r="U31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.0089000000000006</v>
       </c>
       <c r="W31" t="s">
         <v>6</v>
       </c>
       <c r="X31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>4.0044500000000003</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.0044500000000003</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3892,7 +3893,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -3909,19 +3910,19 @@
         <v>3.17</v>
       </c>
       <c r="N33">
-        <f t="shared" ref="N33" si="30">N32-$S$20</f>
+        <f t="shared" ref="N33" si="33">N32-$S$20</f>
         <v>2.17</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33" si="31">O32-$S$20</f>
+        <f t="shared" ref="O33" si="34">O32-$S$20</f>
         <v>2.17</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33" si="32">P32-$S$20</f>
+        <f t="shared" ref="P33" si="35">P32-$S$20</f>
         <v>-2.83</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33" si="33">Q32-$S$20</f>
+        <f t="shared" ref="Q33" si="36">Q32-$S$20</f>
         <v>-2.83</v>
       </c>
       <c r="R33">
@@ -3929,7 +3930,7 @@
         <v>-1.83</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z33">
         <f>SUM(X26:AC31)</f>

--- a/MoranI example.xlsx
+++ b/MoranI example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\Guest\Spatial-analysis-of-public-health-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnmac_ucl_ac_uk/Documents/Teaching/CASA0005/lectures/CASA0005-lecture-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E373E05-9247-4B56-98E4-077946A9E0D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{3E373E05-9247-4B56-98E4-077946A9E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4B3737A-49D6-4CC1-9945-5EC27C52C5EB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25780" windowHeight="4630" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
+    <workbookView xWindow="5970" yWindow="3105" windowWidth="25665" windowHeight="12645" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Moran I example" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1882,13 +1893,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>577505</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:rowOff>97117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>455706</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>97118</xdr:rowOff>
+      <xdr:rowOff>130736</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1899,15 +1910,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="1"/>
-          <a:endCxn id="23" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9489917" y="63499"/>
-          <a:ext cx="4988083" cy="3768913"/>
+          <a:off x="10606770" y="97117"/>
+          <a:ext cx="4898436" cy="3843619"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1962,8 +1970,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9182847" y="1253564"/>
-          <a:ext cx="2752164" cy="2272554"/>
+          <a:off x="10299700" y="1275976"/>
+          <a:ext cx="2692399" cy="2317377"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2096,6 +2104,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2398,18 +2410,18 @@
   <dimension ref="A8:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="S12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2637,10 +2649,10 @@
       </c>
       <c r="AH14">
         <f>(AF14/AF15)*(Z21/U20)</f>
-        <v>0.32556817049636649</v>
+        <v>0.3160526763044183</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2724,7 +2736,7 @@
         <v>-6.1410999999999998</v>
       </c>
       <c r="AB15">
-        <f t="shared" ref="AB15:AB19" si="9">F15*Q15</f>
+        <f t="shared" ref="AB15:AB18" si="9">F15*Q15</f>
         <v>0</v>
       </c>
       <c r="AC15">
@@ -2738,7 +2750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2922,7 +2934,7 @@
         <v>5.1789000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>5.1789000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3045,38 +3057,38 @@
       </c>
       <c r="M19">
         <f>$T$19*M21</f>
-        <v>-8.9710999999999999</v>
+        <v>-5.8010999999999999</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19:R19" si="15">$T$19*N21</f>
-        <v>-6.1410999999999998</v>
+        <v>-3.9710999999999999</v>
       </c>
       <c r="O19">
         <f t="shared" si="15"/>
-        <v>-6.1410999999999998</v>
+        <v>-3.9710999999999999</v>
       </c>
       <c r="P19">
         <f t="shared" si="15"/>
-        <v>8.0089000000000006</v>
+        <v>5.1789000000000005</v>
       </c>
       <c r="Q19">
         <f t="shared" si="15"/>
-        <v>8.0089000000000006</v>
+        <v>5.1789000000000005</v>
       </c>
       <c r="R19">
         <f t="shared" si="15"/>
-        <v>5.1789000000000005</v>
+        <v>3.3489000000000004</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <f t="shared" si="4"/>
-        <v>-2.83</v>
+        <v>-1.83</v>
       </c>
       <c r="U19">
         <f t="shared" si="12"/>
-        <v>8.0089000000000006</v>
+        <v>3.3489000000000004</v>
       </c>
       <c r="W19" t="s">
         <v>6</v>
@@ -3095,18 +3107,18 @@
       </c>
       <c r="AA19">
         <f t="shared" si="8"/>
-        <v>8.0089000000000006</v>
+        <v>5.1789000000000005</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="9"/>
-        <v>8.0089000000000006</v>
+        <f>F19*Q19</f>
+        <v>5.1789000000000005</v>
       </c>
       <c r="AC19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K20" s="1" t="s">
         <v>31</v>
       </c>
@@ -3136,11 +3148,11 @@
       </c>
       <c r="U20" s="1">
         <f>SUM(U14:U19)</f>
-        <v>43.493399999999994</v>
+        <v>38.833399999999997</v>
       </c>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3186,10 +3198,10 @@
       </c>
       <c r="Z21">
         <f>SUM(X14:AC19)</f>
-        <v>42.480199999999996</v>
+        <v>36.820199999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -3197,12 +3209,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AH24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -3282,10 +3294,10 @@
       </c>
       <c r="AH25">
         <f>(AF25/AF26)*(Z33/U32)</f>
-        <v>0.43926358175416658</v>
+        <v>0.41909970970006921</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3480,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3672,7 +3684,7 @@
         <v>1.2947250000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3767,7 +3779,7 @@
         <v>1.7263000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -3800,38 +3812,38 @@
       </c>
       <c r="M31">
         <f>$T$19*M33</f>
-        <v>-8.9710999999999999</v>
+        <v>-5.8010999999999999</v>
       </c>
       <c r="N31">
         <f t="shared" ref="N31:R31" si="32">$T$19*N33</f>
-        <v>-6.1410999999999998</v>
+        <v>-3.9710999999999999</v>
       </c>
       <c r="O31">
         <f t="shared" si="32"/>
-        <v>-6.1410999999999998</v>
+        <v>-3.9710999999999999</v>
       </c>
       <c r="P31">
         <f t="shared" si="32"/>
-        <v>8.0089000000000006</v>
+        <v>5.1789000000000005</v>
       </c>
       <c r="Q31">
         <f t="shared" si="32"/>
-        <v>8.0089000000000006</v>
+        <v>5.1789000000000005</v>
       </c>
       <c r="R31">
         <f t="shared" si="32"/>
-        <v>5.1789000000000005</v>
+        <v>3.3489000000000004</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <f t="shared" si="21"/>
-        <v>-2.83</v>
+        <v>-1.83</v>
       </c>
       <c r="U31">
         <f t="shared" si="22"/>
-        <v>8.0089000000000006</v>
+        <v>3.3489000000000004</v>
       </c>
       <c r="W31" t="s">
         <v>6</v>
@@ -3850,18 +3862,18 @@
       </c>
       <c r="AA31">
         <f t="shared" si="26"/>
-        <v>4.0044500000000003</v>
+        <v>2.5894500000000003</v>
       </c>
       <c r="AB31">
         <f t="shared" si="27"/>
-        <v>4.0044500000000003</v>
+        <v>2.5894500000000003</v>
       </c>
       <c r="AC31">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
         <v>10</v>
       </c>
@@ -3888,10 +3900,10 @@
       </c>
       <c r="U32" s="1">
         <f>SUM(U26:U31)</f>
-        <v>43.493399999999994</v>
+        <v>38.833399999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -3934,7 +3946,7 @@
       </c>
       <c r="Z33">
         <f>SUM(X26:AC31)</f>
-        <v>19.105066666666666</v>
+        <v>16.275066666666667</v>
       </c>
     </row>
   </sheetData>

--- a/MoranI example.xlsx
+++ b/MoranI example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnmac_ucl_ac_uk/Documents/Teaching/CASA0005/lectures/CASA0005-lecture-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{3E373E05-9247-4B56-98E4-077946A9E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4B3737A-49D6-4CC1-9945-5EC27C52C5EB}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3E373E05-9247-4B56-98E4-077946A9E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B2F8BF6-7545-4ADB-BA49-2FEC8A3ADE1B}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="3105" windowWidth="25665" windowHeight="12645" xr2:uid="{10864EA3-0980-4079-A6AE-46B752D7E7B5}"/>
   </bookViews>
@@ -988,13 +988,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>361576</xdr:colOff>
+      <xdr:colOff>89648</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>162859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:colOff>179295</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>132976</xdr:rowOff>
     </xdr:to>
@@ -1011,8 +1011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8661400" y="723153"/>
-          <a:ext cx="1042894" cy="343647"/>
+          <a:off x="9513795" y="924859"/>
+          <a:ext cx="1299882" cy="351117"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,13 +1944,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>270435</xdr:colOff>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>132976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>363070</xdr:colOff>
+      <xdr:colOff>359335</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>164353</xdr:rowOff>
     </xdr:to>
@@ -1970,8 +1970,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10299700" y="1275976"/>
-          <a:ext cx="2692399" cy="2317377"/>
+          <a:off x="10163736" y="1275976"/>
+          <a:ext cx="2824628" cy="2317377"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8445F-C5AC-4765-895A-655DD8F47285}">
   <dimension ref="A8:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,11 +2580,11 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:R14" si="0">$T$14*M21</f>
+        <f>$T$14*M21</f>
         <v>10.0489</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M14:R14" si="0">$T$14*N21</f>
         <v>6.8788999999999998</v>
       </c>
       <c r="O14">
